--- a/results/samplesort.xlsx
+++ b/results/samplesort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValkCoen\Documents\school\parallel_prog\CSCI4320-FinalProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA1A918-A0F5-4C16-8627-AF4576DF4DD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C082A3-2FEA-405E-ADCE-33B10172FE55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9510" yWindow="4830" windowWidth="21600" windowHeight="11385" xr2:uid="{67CA58A5-8993-4571-BDDB-E63660ED943A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67CA58A5-8993-4571-BDDB-E63660ED943A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,6 +78,4355 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scalability of Samplesort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>33554432</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20.542795999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.560138999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7577420000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3662290000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2753220000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7547790000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2690809999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.102023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.928597999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.052665000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>569.12378699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D341-4D11-BF7D-173F9039D138}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="665569312"/>
+        <c:axId val="722132400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="665569312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722132400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="722132400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665569312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scalability of Samplesort -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>33554432 Elements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$A$2:$A$9,Sheet1!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$2:$G$9,Sheet1!$G$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20.542795999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.560138999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7577420000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3662290000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2753220000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7547790000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2690809999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.102023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.928597999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3FF-4623-B885-AF313918B568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="659516272"/>
+        <c:axId val="533457424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="659516272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533457424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="533457424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659516272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time of Samplesort - 512 MPI Ranks</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.0480479999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1287710000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2752990000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.952201000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.928597999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF03-4DD9-94EA-0CBFBD1CCF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1655722784"/>
+        <c:axId val="1563838656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1655722784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563838656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563838656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655722784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Time of Samplesort - 2048 MPI Ranks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>487.84311000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>629.57976199999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>572.87605599999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>569.42479200000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>569.12378699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE04-4EAD-BA2A-654B54EF90A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1657209856"/>
+        <c:axId val="1563848640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1657209856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563848640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563848640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657209856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF722F8-F679-49AD-814F-07D68E7622AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F6684D-AAA7-42DC-8CC4-764C1E854AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF775430-8BC7-4478-833C-06FC441844A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D739D0BE-D62C-484E-B31F-4534042A7ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,15 +4726,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111301A7-DC14-442E-B815-7C53B3970A8D}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1048576</v>
       </c>
@@ -393,7 +4742,7 @@
         <v>2097152</v>
       </c>
       <c r="D1">
-        <v>419304</v>
+        <v>4194304</v>
       </c>
       <c r="E1">
         <v>8388608</v>
@@ -404,8 +4753,26 @@
       <c r="G1">
         <v>33554432</v>
       </c>
+      <c r="K1">
+        <v>1048576</v>
+      </c>
+      <c r="L1">
+        <f>2*K1</f>
+        <v>2097152</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:O1" si="0">2*L1</f>
+        <v>4194304</v>
+      </c>
+      <c r="N1">
+        <v>16777216</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -427,8 +4794,26 @@
       <c r="G2">
         <v>20.542795999999999</v>
       </c>
+      <c r="J2">
+        <v>512</v>
+      </c>
+      <c r="K2">
+        <v>9.0480479999999996</v>
+      </c>
+      <c r="L2">
+        <v>9.1287710000000004</v>
+      </c>
+      <c r="M2">
+        <v>9.2752990000000004</v>
+      </c>
+      <c r="N2">
+        <v>10.952201000000001</v>
+      </c>
+      <c r="O2">
+        <v>12.928597999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -451,7 +4836,7 @@
         <v>10.560138999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -473,8 +4858,26 @@
       <c r="G4">
         <v>5.7577420000000004</v>
       </c>
+      <c r="K4">
+        <v>1048576</v>
+      </c>
+      <c r="L4">
+        <f>2*K4</f>
+        <v>2097152</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:O4" si="1">2*L4</f>
+        <v>4194304</v>
+      </c>
+      <c r="N4">
+        <v>16777216</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>33554432</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -496,8 +4899,26 @@
       <c r="G5">
         <v>3.3662290000000001</v>
       </c>
+      <c r="J5">
+        <v>2048</v>
+      </c>
+      <c r="K5">
+        <v>487.84311000000002</v>
+      </c>
+      <c r="L5">
+        <v>629.57976199999996</v>
+      </c>
+      <c r="M5">
+        <v>572.87605599999995</v>
+      </c>
+      <c r="N5">
+        <v>569.42479200000002</v>
+      </c>
+      <c r="O5">
+        <v>569.12378699999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -520,7 +4941,7 @@
         <v>2.2753220000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -543,7 +4964,7 @@
         <v>1.7547790000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>128</v>
       </c>
@@ -560,7 +4981,7 @@
         <v>2.2690809999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>256</v>
       </c>
@@ -577,7 +4998,7 @@
         <v>4.102023</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>512</v>
       </c>
@@ -597,7 +5018,7 @@
         <v>12.928597999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1024</v>
       </c>
@@ -611,7 +5032,7 @@
         <v>74.052665000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2048</v>
       </c>
@@ -631,12 +5052,13 @@
         <v>569.12378699999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4096</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/samplesort.xlsx
+++ b/results/samplesort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValkCoen\Documents\school\parallel_prog\CSCI4320-FinalProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C082A3-2FEA-405E-ADCE-33B10172FE55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DC38D-C09B-489E-A3CD-FA315D42305A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67CA58A5-8993-4571-BDDB-E63660ED943A}"/>
   </bookViews>
@@ -28,6 +28,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Samplesort</t>
+  </si>
+  <si>
+    <t>Quicksort</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -115,21 +126,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scalability of Samplesort</a:t>
+              <a:t>Scalability</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - </a:t>
+              <a:t> of Samplesort</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>33554432</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Elements</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -166,18 +168,18 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>33554432</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -250,6 +252,651 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.53508599999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28276699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15909899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7495999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8066999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2392000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.278256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.02193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0480479999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.546800000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>487.84311000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0097-456A-B6E1-36484763B616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1168640000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58427700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.322127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.142739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17452100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33732000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.370117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1287710000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.887450000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>629.57976199999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0097-456A-B6E1-36484763B616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.3050060000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2045189999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67055900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40198699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28131400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28381200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49779800000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.587458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2752990000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.063226999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>572.87605599999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0097-456A-B6E1-36484763B616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.7929079999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4797720000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.351281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81125899999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55452999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49157400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73238199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8473219999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.23888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.432950000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>570.21280000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0097-456A-B6E1-36484763B616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16777216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.9047429999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1703460000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8083840000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.667878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1314150000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91196200000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2945120000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.668002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.952201000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.773027999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>569.42479200000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0097-456A-B6E1-36484763B616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -290,10 +937,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D341-4D11-BF7D-173F9039D138}"/>
+              <c16:uniqueId val="{00000005-0097-456A-B6E1-36484763B616}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -305,12 +952,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="665569312"/>
-        <c:axId val="722132400"/>
+        <c:axId val="515101136"/>
+        <c:axId val="459380224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="665569312"/>
+        <c:axId val="515101136"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -350,13 +998,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Processes</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Processes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -426,12 +1069,1541 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722132400"/>
+        <c:crossAx val="459380224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="722132400"/>
+        <c:axId val="459380224"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515101136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Time Growth of Samplesort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.53508599999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1168640000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3050060000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7929079999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9047429999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.542795999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28276699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58427700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2045189999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4797720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1703460000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.560138999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15909899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.322127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67055900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.351281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8083840000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7577420000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.7495999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40198699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81125899999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.667878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3662290000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.8066999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.142739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28131400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55452999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1314150000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2753220000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2392000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17452100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28381200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49157400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91196200000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7547790000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.278256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33732000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49779800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73238199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2945120000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2690809999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.02193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.370117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.587458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8473219999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.668002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.102023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.0480479999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1287710000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2752990000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.23888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.952201000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.928597999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>70.546800000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.887450000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.063226999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.432950000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.773027999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.052665000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>487.84311000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>629.57976199999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>572.87605599999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570.21280000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>569.42479200000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>569.12378699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7603-4E1E-9744-3F71E12A6522}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="459003520"/>
+        <c:axId val="524222720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="459003520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1048576"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524222720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524222720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +2720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665569312"/>
+        <c:crossAx val="459003520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -560,98 +2732,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Scalability of Samplesort -</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>33554432 Elements</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -665,7 +2747,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -680,388 +2762,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>33554432</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Sheet1!$A$2:$A$9,Sheet1!$A$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Sheet1!$G$2:$G$9,Sheet1!$G$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>20.542795999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.560138999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7577420000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3662290000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2753220000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7547790000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2690809999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.102023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.928597999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3FF-4623-B885-AF313918B568}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="659516272"/>
-        <c:axId val="533457424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="659516272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Processes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533457424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="533457424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="659516272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1141,11 +2842,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Execution</a:t>
+              <a:t>Speedup</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time of Samplesort - 512 MPI Ranks</a:t>
+              <a:t> of Smaplesort vs. Quicksort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1184,18 +2885,18 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1226,56 +2927,737 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$1:$O$1</c:f>
+              <c:f>Sheet1!$A$15:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1048576</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2097152</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4194304</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16777216</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33554432</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$O$2</c:f>
+              <c:f>Sheet1!$B$15:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.0480479999999996</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.0378313018841836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1287710000000004</c:v>
+                  <c:v>5.7485526953286632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2752990000000004</c:v>
+                  <c:v>10.216915254024226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.952201000000001</c:v>
+                  <c:v>16.672489127759089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.928597999999999</c:v>
+                  <c:v>20.821870956998477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.593525413455712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.841746449312863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5906187312242521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17965211944056886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3041456168104012E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3320159015877049E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF03-4DD9-94EA-0CBFBD1CCF38}"/>
+              <c16:uniqueId val="{00000000-8FEC-4A8C-B7CC-A0522E683045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.1531842731075583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0274116557728608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.932576282025412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.022917093142272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.672149867940785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.179107385357636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.440169571919839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5703483717084015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38577788839264343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.967985165216128E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5936963234215278E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FEC-4A8C-B7CC-A0522E683045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.0115583213232413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.763014116008133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.35204955865181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.268369375129048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.67584265269414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.458655729849337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.944732602380885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.372814902819476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74840282776867884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7682870495031132E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2117210917259912E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FEC-4A8C-B7CC-A0522E683045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.0424679547364568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8804878029109124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.791440862411298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.97486252848967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.296627774872416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.664443196751659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.910741935219598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8937342813001745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.424205479505571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20413925226383622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5573380674723541E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FEC-4A8C-B7CC-A0522E683045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16777216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.9993646478257943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.745831323474289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.578302682254279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.81181597215144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.257329096750528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.575848555093302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.949139135056296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.134900198725488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7125082894296773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41391504340599927</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2171834485211524E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8FEC-4A8C-B7CC-A0522E683045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.1051392419999693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0404737096737078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.078690570018592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.949466004838055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.034819687059674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.3511541909266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.111928133019489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.550434992685316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9338870309062131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86139022815721744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11208148992725198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8FEC-4A8C-B7CC-A0522E683045}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1287,11 +3669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1655722784"/>
-        <c:axId val="1563838656"/>
+        <c:axId val="481749456"/>
+        <c:axId val="541963824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1655722784"/>
+        <c:axId val="481749456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,13 +3714,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Processes</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Elements</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1408,12 +3785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1563838656"/>
+        <c:crossAx val="541963824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1563838656"/>
+        <c:axId val="541963824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,11 +3831,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Execution</a:t>
+                  <a:t>Times Faster</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time (s)</a:t>
+                  <a:t> than Quicksort</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1530,7 +3907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655722784"/>
+        <c:crossAx val="481749456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1542,90 +3919,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Execution Time of Samplesort - 2048 MPI Ranks</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1639,7 +3934,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1654,364 +3949,7 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$4:$O$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4194304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33554432</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$5:$O$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>487.84311000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>629.57976199999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>572.87605599999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>569.42479200000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>569.12378699999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE04-4EAD-BA2A-654B54EF90A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1657209856"/>
-        <c:axId val="1563848640"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1657209856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Elements</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1563848640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1563848640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1657209856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2176,46 +4114,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3764,543 +5662,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF722F8-F679-49AD-814F-07D68E7622AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC2554C-58D2-41FE-8038-FDF76E94B809}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4320,23 +5702,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F6684D-AAA7-42DC-8CC4-764C1E854AF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CA9CEA-2001-4B16-98E5-4039536F8D18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4356,23 +5738,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF775430-8BC7-4478-833C-06FC441844A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6ADD23-2F6B-45C8-A204-52265284D0DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4385,42 +5767,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D739D0BE-D62C-484E-B31F-4534042A7ED2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4726,15 +6072,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111301A7-DC14-442E-B815-7C53B3970A8D}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>1048576</v>
       </c>
@@ -4753,26 +6105,8 @@
       <c r="G1">
         <v>33554432</v>
       </c>
-      <c r="K1">
-        <v>1048576</v>
-      </c>
-      <c r="L1">
-        <f>2*K1</f>
-        <v>2097152</v>
-      </c>
-      <c r="M1">
-        <f t="shared" ref="M1:O1" si="0">2*L1</f>
-        <v>4194304</v>
-      </c>
-      <c r="N1">
-        <v>16777216</v>
-      </c>
-      <c r="O1">
-        <f t="shared" si="0"/>
-        <v>33554432</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4794,26 +6128,8 @@
       <c r="G2">
         <v>20.542795999999999</v>
       </c>
-      <c r="J2">
-        <v>512</v>
-      </c>
-      <c r="K2">
-        <v>9.0480479999999996</v>
-      </c>
-      <c r="L2">
-        <v>9.1287710000000004</v>
-      </c>
-      <c r="M2">
-        <v>9.2752990000000004</v>
-      </c>
-      <c r="N2">
-        <v>10.952201000000001</v>
-      </c>
-      <c r="O2">
-        <v>12.928597999999999</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4836,7 +6152,7 @@
         <v>10.560138999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4858,26 +6174,8 @@
       <c r="G4">
         <v>5.7577420000000004</v>
       </c>
-      <c r="K4">
-        <v>1048576</v>
-      </c>
-      <c r="L4">
-        <f>2*K4</f>
-        <v>2097152</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:O4" si="1">2*L4</f>
-        <v>4194304</v>
-      </c>
-      <c r="N4">
-        <v>16777216</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>33554432</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -4899,26 +6197,8 @@
       <c r="G5">
         <v>3.3662290000000001</v>
       </c>
-      <c r="J5">
-        <v>2048</v>
-      </c>
-      <c r="K5">
-        <v>487.84311000000002</v>
-      </c>
-      <c r="L5">
-        <v>629.57976199999996</v>
-      </c>
-      <c r="M5">
-        <v>572.87605599999995</v>
-      </c>
-      <c r="N5">
-        <v>569.42479200000002</v>
-      </c>
-      <c r="O5">
-        <v>569.12378699999999</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -4941,7 +6221,7 @@
         <v>2.2753220000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -4964,16 +6244,22 @@
         <v>1.7547790000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>128</v>
       </c>
+      <c r="B8">
+        <v>0.278256</v>
+      </c>
       <c r="C8">
         <v>0.33732000000000001</v>
       </c>
       <c r="D8">
         <v>0.49779800000000002</v>
       </c>
+      <c r="E8">
+        <v>0.73238199999999998</v>
+      </c>
       <c r="F8">
         <v>1.2945120000000001</v>
       </c>
@@ -4981,16 +6267,22 @@
         <v>2.2690809999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>256</v>
       </c>
+      <c r="B9">
+        <v>1.02193</v>
+      </c>
       <c r="C9">
         <v>1.370117</v>
       </c>
       <c r="D9">
         <v>1.587458</v>
       </c>
+      <c r="E9">
+        <v>1.8473219999999999</v>
+      </c>
       <c r="F9">
         <v>2.668002</v>
       </c>
@@ -4998,7 +6290,7 @@
         <v>4.102023</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>512</v>
       </c>
@@ -5011,6 +6303,9 @@
       <c r="D10">
         <v>9.2752990000000004</v>
       </c>
+      <c r="E10">
+        <v>10.23888</v>
+      </c>
       <c r="F10">
         <v>10.952201000000001</v>
       </c>
@@ -5018,13 +6313,22 @@
         <v>12.928597999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1024</v>
       </c>
+      <c r="B11">
+        <v>70.546800000000005</v>
+      </c>
+      <c r="C11">
+        <v>70.887450000000001</v>
+      </c>
       <c r="D11">
         <v>71.063226999999998</v>
       </c>
+      <c r="E11">
+        <v>71.432950000000005</v>
+      </c>
       <c r="F11">
         <v>71.773027999999996</v>
       </c>
@@ -5032,7 +6336,7 @@
         <v>74.052665000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2048</v>
       </c>
@@ -5045,6 +6349,9 @@
       <c r="D12">
         <v>572.87605599999995</v>
       </c>
+      <c r="E12">
+        <v>570.21280000000002</v>
+      </c>
       <c r="F12">
         <v>569.42479200000002</v>
       </c>
@@ -5052,9 +6359,366 @@
         <v>569.12378699999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4096</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.6255010000000001</v>
+      </c>
+      <c r="C13">
+        <v>3.5216780000000001</v>
+      </c>
+      <c r="D13">
+        <v>6.9416599999999997</v>
+      </c>
+      <c r="E13">
+        <v>14.582269</v>
+      </c>
+      <c r="F13">
+        <v>29.707936</v>
+      </c>
+      <c r="G13">
+        <v>63.788241999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1048576</v>
+      </c>
+      <c r="C14">
+        <v>2097152</v>
+      </c>
+      <c r="D14">
+        <v>4194304</v>
+      </c>
+      <c r="E14">
+        <v>8388608</v>
+      </c>
+      <c r="F14">
+        <v>16777216</v>
+      </c>
+      <c r="G14">
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f ca="1">INDIRECT("B13") / B2</f>
+        <v>3.0378313018841836</v>
+      </c>
+      <c r="C15">
+        <f ca="1">INDIRECT("C13") / C2</f>
+        <v>3.1531842731075583</v>
+      </c>
+      <c r="D15">
+        <f ca="1">INDIRECT("D13") / D2</f>
+        <v>3.0115583213232413</v>
+      </c>
+      <c r="E15">
+        <f ca="1">INDIRECT("E13") / E2</f>
+        <v>3.0424679547364568</v>
+      </c>
+      <c r="F15">
+        <f ca="1">INDIRECT("F13") / F2</f>
+        <v>2.9993646478257943</v>
+      </c>
+      <c r="G15">
+        <f ca="1">INDIRECT("G13") / G2</f>
+        <v>3.1051392419999693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B26" ca="1" si="0">INDIRECT("B13") / B3</f>
+        <v>5.7485526953286632</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C26" ca="1" si="1">INDIRECT("C13") / C3</f>
+        <v>6.0274116557728608</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D26" ca="1" si="2">INDIRECT("D13") / D3</f>
+        <v>5.763014116008133</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E26" ca="1" si="3">INDIRECT("E13") / E3</f>
+        <v>5.8804878029109124</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F26" ca="1" si="4">INDIRECT("F13") / F3</f>
+        <v>5.745831323474289</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G26" ca="1" si="5">INDIRECT("G13") / G3</f>
+        <v>6.0404737096737078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.216915254024226</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.932576282025412</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.35204955865181</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.791440862411298</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="4"/>
+        <v>10.578302682254279</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="5"/>
+        <v>11.078690570018592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.672489127759089</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.022917093142272</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.268369375129048</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.97486252848967</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.81181597215144</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.949466004838055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.821870956998477</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.672149867940785</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.67584265269414</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.296627774872416</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.257329096750528</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="5"/>
+        <v>28.034819687059674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.593525413455712</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.179107385357636</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.458655729849337</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.664443196751659</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="4"/>
+        <v>32.575848555093302</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="5"/>
+        <v>36.3511541909266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.841746449312863</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.440169571919839</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.944732602380885</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>19.910741935219598</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.949139135056296</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="5"/>
+        <v>28.111928133019489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>256</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5906187312242521</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5703483717084015</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.372814902819476</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.8937342813001745</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.134900198725488</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="5"/>
+        <v>15.550434992685316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>512</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17965211944056886</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38577788839264343</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74840282776867884</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.424205479505571</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7125082894296773</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9338870309062131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1024</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3041456168104012E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.967985165216128E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7682870495031132E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20413925226383622</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.41391504340599927</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.86139022815721744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2048</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3320159015877049E-3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5936963234215278E-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2117210917259912E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5573380674723541E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.2171834485211524E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11208148992725198</v>
       </c>
     </row>
   </sheetData>

--- a/results/samplesort.xlsx
+++ b/results/samplesort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValkCoen\Documents\school\parallel_prog\CSCI4320-FinalProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DC38D-C09B-489E-A3CD-FA315D42305A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF9BC52-EF58-4478-8A86-123E03F4159D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67CA58A5-8993-4571-BDDB-E63660ED943A}"/>
   </bookViews>
@@ -2974,37 +2974,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.0378313018841836</c:v>
+                  <c:v>2.4874057628119592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7485526953286632</c:v>
+                  <c:v>4.7069707568422059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.216915254024226</c:v>
+                  <c:v>8.3657094010647466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.672489127759089</c:v>
+                  <c:v>13.651595962911298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.821870956998477</c:v>
+                  <c:v>17.049150089026092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.593525413455712</c:v>
+                  <c:v>14.405749415533812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.841746449312863</c:v>
+                  <c:v>4.783278707377379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5906187312242521</c:v>
+                  <c:v>1.302414059671406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17965211944056886</c:v>
+                  <c:v>0.14710089955314118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3041456168104012E-2</c:v>
+                  <c:v>1.886656800875447E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3320159015877049E-3</c:v>
+                  <c:v>2.7282869691446494E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,37 +3103,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.1531842731075583</c:v>
+                  <c:v>2.4888195877027099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0274116557728608</c:v>
+                  <c:v>4.7574575073124556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.932576282025412</c:v>
+                  <c:v>8.6291214334718909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.022917093142272</c:v>
+                  <c:v>14.225552712384852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.672149867940785</c:v>
+                  <c:v>19.473815845704397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.179107385357636</c:v>
+                  <c:v>15.927441396737354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.440169571919839</c:v>
+                  <c:v>8.2404630617810977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5703483717084015</c:v>
+                  <c:v>2.0287851329484998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38577788839264343</c:v>
+                  <c:v>0.30449586258654093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.967985165216128E-2</c:v>
+                  <c:v>3.9212484015153599E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5936963234215278E-3</c:v>
+                  <c:v>4.4151244493148114E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,37 +3232,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.0115583213232413</c:v>
+                  <c:v>2.5150485508497593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.763014116008133</c:v>
+                  <c:v>4.8128771733779221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.35204955865181</c:v>
+                  <c:v>8.6453272568111093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.268369375129048</c:v>
+                  <c:v>14.421366860122344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.67584265269414</c:v>
+                  <c:v>20.607584407459282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.458655729849337</c:v>
+                  <c:v>20.426204670697505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.944732602380885</c:v>
+                  <c:v>11.645691625920554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.372814902819476</c:v>
+                  <c:v>3.6518774040006101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74840282776867884</c:v>
+                  <c:v>0.62501510732969368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7682870495031132E-2</c:v>
+                  <c:v>8.157808538584943E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2117210917259912E-2</c:v>
+                  <c:v>1.0119469891057902E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,37 +3361,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.0424679547364568</c:v>
+                  <c:v>2.5186586097625914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8804878029109124</c:v>
+                  <c:v>4.8680681127135879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.791440862411298</c:v>
+                  <c:v>8.9335223391729777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.97486252848967</c:v>
+                  <c:v>14.880203486186288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.296627774872416</c:v>
+                  <c:v>21.769244224839056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.664443196751659</c:v>
+                  <c:v>24.557236550346438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.910741935219598</c:v>
+                  <c:v>16.482790401730245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8937342813001745</c:v>
+                  <c:v>6.5347021255633839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.424205479505571</c:v>
+                  <c:v>1.1790058092291344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20413925226383622</c:v>
+                  <c:v>0.16899342670294309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5573380674723541E-2</c:v>
+                  <c:v>2.1170515639073694E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,37 +3490,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.9993646478257943</c:v>
+                  <c:v>2.5342844332255767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.745831323474289</c:v>
+                  <c:v>4.8548851469514807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.578302682254279</c:v>
+                  <c:v>8.9380355392994684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.81181597215144</c:v>
+                  <c:v>15.049923315734125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.257329096750528</c:v>
+                  <c:v>22.18587874475767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.575848555093302</c:v>
+                  <c:v>27.52465124643351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.949139135056296</c:v>
+                  <c:v>19.390655320306028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.134900198725488</c:v>
+                  <c:v>9.4083272801144826</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7125082894296773</c:v>
+                  <c:v>2.2919079005215481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41391504340599927</c:v>
+                  <c:v>0.34973355171806325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2171834485211524E-2</c:v>
+                  <c:v>4.4082091880537577E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,37 +3619,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.1051392419999693</c:v>
+                  <c:v>2.5369481836844412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0404737096737078</c:v>
+                  <c:v>4.9351631640454734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.078690570018592</c:v>
+                  <c:v>9.0514665297611447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.949466004838055</c:v>
+                  <c:v>15.482015335260909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.034819687059674</c:v>
+                  <c:v>22.904893900731413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.3511541909266</c:v>
+                  <c:v>29.699471557386996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.111928133019489</c:v>
+                  <c:v>22.967892728377699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.550434992685316</c:v>
+                  <c:v>12.704952897631241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9338870309062131</c:v>
+                  <c:v>4.0310642344978165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86139022815721744</c:v>
+                  <c:v>0.70376952672803872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11208148992725198</c:v>
+                  <c:v>9.1572361216383319E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6075,7 +6075,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6364,22 +6364,22 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1.6255010000000001</v>
+        <v>1.3309759999999999</v>
       </c>
       <c r="C13">
-        <v>3.5216780000000001</v>
+        <v>2.7796729999999998</v>
       </c>
       <c r="D13">
-        <v>6.9416599999999997</v>
+        <v>5.7972020000000004</v>
       </c>
       <c r="E13">
-        <v>14.582269</v>
+        <v>12.071699000000001</v>
       </c>
       <c r="F13">
-        <v>29.707936</v>
+        <v>25.101436</v>
       </c>
       <c r="G13">
-        <v>63.788241999999997</v>
+        <v>52.116008999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6408,27 +6408,27 @@
       </c>
       <c r="B15">
         <f ca="1">INDIRECT("B13") / B2</f>
-        <v>3.0378313018841836</v>
+        <v>2.4874057628119592</v>
       </c>
       <c r="C15">
         <f ca="1">INDIRECT("C13") / C2</f>
-        <v>3.1531842731075583</v>
+        <v>2.4888195877027099</v>
       </c>
       <c r="D15">
         <f ca="1">INDIRECT("D13") / D2</f>
-        <v>3.0115583213232413</v>
+        <v>2.5150485508497593</v>
       </c>
       <c r="E15">
         <f ca="1">INDIRECT("E13") / E2</f>
-        <v>3.0424679547364568</v>
+        <v>2.5186586097625914</v>
       </c>
       <c r="F15">
         <f ca="1">INDIRECT("F13") / F2</f>
-        <v>2.9993646478257943</v>
+        <v>2.5342844332255767</v>
       </c>
       <c r="G15">
         <f ca="1">INDIRECT("G13") / G2</f>
-        <v>3.1051392419999693</v>
+        <v>2.5369481836844412</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6436,28 +6436,28 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:B26" ca="1" si="0">INDIRECT("B13") / B3</f>
-        <v>5.7485526953286632</v>
+        <f t="shared" ref="B16:B25" ca="1" si="0">INDIRECT("B13") / B3</f>
+        <v>4.7069707568422059</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C26" ca="1" si="1">INDIRECT("C13") / C3</f>
-        <v>6.0274116557728608</v>
+        <f t="shared" ref="C16:C25" ca="1" si="1">INDIRECT("C13") / C3</f>
+        <v>4.7574575073124556</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D26" ca="1" si="2">INDIRECT("D13") / D3</f>
-        <v>5.763014116008133</v>
+        <f t="shared" ref="D16:D25" ca="1" si="2">INDIRECT("D13") / D3</f>
+        <v>4.8128771733779221</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E26" ca="1" si="3">INDIRECT("E13") / E3</f>
-        <v>5.8804878029109124</v>
+        <f t="shared" ref="E16:E25" ca="1" si="3">INDIRECT("E13") / E3</f>
+        <v>4.8680681127135879</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F26" ca="1" si="4">INDIRECT("F13") / F3</f>
-        <v>5.745831323474289</v>
+        <f t="shared" ref="F16:F25" ca="1" si="4">INDIRECT("F13") / F3</f>
+        <v>4.8548851469514807</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G26" ca="1" si="5">INDIRECT("G13") / G3</f>
-        <v>6.0404737096737078</v>
+        <f t="shared" ref="G16:G25" ca="1" si="5">INDIRECT("G13") / G3</f>
+        <v>4.9351631640454734</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6466,27 +6466,27 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>10.216915254024226</v>
+        <v>8.3657094010647466</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.932576282025412</v>
+        <v>8.6291214334718909</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>10.35204955865181</v>
+        <v>8.6453272568111093</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>10.791440862411298</v>
+        <v>8.9335223391729777</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="4"/>
-        <v>10.578302682254279</v>
+        <v>8.9380355392994684</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="5"/>
-        <v>11.078690570018592</v>
+        <v>9.0514665297611447</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6495,27 +6495,27 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>16.672489127759089</v>
+        <v>13.651595962911298</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>18.022917093142272</v>
+        <v>14.225552712384852</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>17.268369375129048</v>
+        <v>14.421366860122344</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
-        <v>17.97486252848967</v>
+        <v>14.880203486186288</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="4"/>
-        <v>17.81181597215144</v>
+        <v>15.049923315734125</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="5"/>
-        <v>18.949466004838055</v>
+        <v>15.482015335260909</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6524,27 +6524,27 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>20.821870956998477</v>
+        <v>17.049150089026092</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>24.672149867940785</v>
+        <v>19.473815845704397</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>24.67584265269414</v>
+        <v>20.607584407459282</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>26.296627774872416</v>
+        <v>21.769244224839056</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="4"/>
-        <v>26.257329096750528</v>
+        <v>22.18587874475767</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="5"/>
-        <v>28.034819687059674</v>
+        <v>22.904893900731413</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6553,27 +6553,27 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.593525413455712</v>
+        <v>14.405749415533812</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>20.179107385357636</v>
+        <v>15.927441396737354</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.458655729849337</v>
+        <v>20.426204670697505</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>29.664443196751659</v>
+        <v>24.557236550346438</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="4"/>
-        <v>32.575848555093302</v>
+        <v>27.52465124643351</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="5"/>
-        <v>36.3511541909266</v>
+        <v>29.699471557386996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6582,27 +6582,27 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.841746449312863</v>
+        <v>4.783278707377379</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.440169571919839</v>
+        <v>8.2404630617810977</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>13.944732602380885</v>
+        <v>11.645691625920554</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>19.910741935219598</v>
+        <v>16.482790401730245</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="4"/>
-        <v>22.949139135056296</v>
+        <v>19.390655320306028</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="5"/>
-        <v>28.111928133019489</v>
+        <v>22.967892728377699</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6611,27 +6611,27 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5906187312242521</v>
+        <v>1.302414059671406</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5703483717084015</v>
+        <v>2.0287851329484998</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>4.372814902819476</v>
+        <v>3.6518774040006101</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8937342813001745</v>
+        <v>6.5347021255633839</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="4"/>
-        <v>11.134900198725488</v>
+        <v>9.4083272801144826</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="5"/>
-        <v>15.550434992685316</v>
+        <v>12.704952897631241</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6640,27 +6640,27 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17965211944056886</v>
+        <v>0.14710089955314118</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38577788839264343</v>
+        <v>0.30449586258654093</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74840282776867884</v>
+        <v>0.62501510732969368</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.424205479505571</v>
+        <v>1.1790058092291344</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7125082894296773</v>
+        <v>2.2919079005215481</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9338870309062131</v>
+        <v>4.0310642344978165</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6669,27 +6669,27 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3041456168104012E-2</v>
+        <v>1.886656800875447E-2</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.967985165216128E-2</v>
+        <v>3.9212484015153599E-2</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7682870495031132E-2</v>
+        <v>8.157808538584943E-2</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20413925226383622</v>
+        <v>0.16899342670294309</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41391504340599927</v>
+        <v>0.34973355171806325</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86139022815721744</v>
+        <v>0.70376952672803872</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6698,27 +6698,27 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3320159015877049E-3</v>
+        <v>2.7282869691446494E-3</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5936963234215278E-3</v>
+        <v>4.4151244493148114E-3</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2117210917259912E-2</v>
+        <v>1.0119469891057902E-2</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5573380674723541E-2</v>
+        <v>2.1170515639073694E-2</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2171834485211524E-2</v>
+        <v>4.4082091880537577E-2</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11208148992725198</v>
+        <v>9.1572361216383319E-2</v>
       </c>
     </row>
   </sheetData>
